--- a/pizza-bussiness-server/src/main/resources/ingredient.xlsx
+++ b/pizza-bussiness-server/src/main/resources/ingredient.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3910FF9A-F838-F548-85E2-CED3DFA91FFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="7340" yWindow="840" windowWidth="25880" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,8 +56,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -187,6 +188,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -222,6 +240,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,16 +432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -434,7 +469,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -448,9 +483,15 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
       </c>
       <c r="D4">
         <v>6000</v>
